--- a/Quality_Scoring_Functions/Quality_Functions/DockQ/Data/AlphaFold_Multimer_All_TB/7XFG_DockQ_data_TB.xlsx
+++ b/Quality_Scoring_Functions/Quality_Functions/DockQ/Data/AlphaFold_Multimer_All_TB/7XFG_DockQ_data_TB.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neginmanshour/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neginmanshour/Desktop/PpEv/Quality_Scoring_Functions/Quality_Functions/DockQ/Data/AlphaFold_Multimer_All_TB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD099CB-C307-6144-8768-7DC6D4ABE4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23C3D53-E2B5-B341-9D4E-9B30F2927D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="12820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -3425,7 +3425,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
